--- a/AAII_Financials/Yearly/WBBA_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/WBBA_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="92">
   <si>
     <t>WBBA</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,60 +665,64 @@
     <col min="1" max="1" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44408</v>
+      </c>
+      <c r="E7" s="2">
         <v>41455</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>41090</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>39263</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>38898</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>38533</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>38168</v>
       </c>
-      <c r="J7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="K7" s="2"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="3">
         <v>200</v>
       </c>
-      <c r="E8" s="3">
-        <v>0</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>3</v>
+      <c r="F8" s="3">
+        <v>0</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>3</v>
@@ -732,14 +736,17 @@
       <c r="J8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K8" s="3"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="3"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>3</v>
+      <c r="D9" s="3">
+        <v>100</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>3</v>
@@ -759,9 +766,12 @@
       <c r="J9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K9" s="3"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L9" s="3"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -786,9 +796,12 @@
       <c r="J10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K10" s="3"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L10" s="3"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -800,8 +813,9 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -811,24 +825,27 @@
       <c r="E12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G12" s="3">
         <v>12100</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>500</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>1000</v>
       </c>
-      <c r="I12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J12" s="3">
-        <v>0</v>
-      </c>
-      <c r="K12" s="3"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K12" s="3">
+        <v>0</v>
+      </c>
+      <c r="L12" s="3"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -853,9 +870,12 @@
       <c r="J13" s="3">
         <v>0</v>
       </c>
-      <c r="K13" s="3"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K13" s="3">
+        <v>0</v>
+      </c>
+      <c r="L13" s="3"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -865,12 +885,12 @@
       <c r="E14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" s="3">
         <v>400</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
       <c r="H14" s="3">
         <v>0</v>
       </c>
@@ -880,9 +900,12 @@
       <c r="J14" s="3">
         <v>0</v>
       </c>
-      <c r="K14" s="3"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -892,12 +915,12 @@
       <c r="E15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G15" s="3">
         <v>100</v>
       </c>
-      <c r="G15" s="3">
-        <v>0</v>
-      </c>
       <c r="H15" s="3">
         <v>0</v>
       </c>
@@ -907,9 +930,12 @@
       <c r="J15" s="3">
         <v>0</v>
       </c>
-      <c r="K15" s="3"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K15" s="3">
+        <v>0</v>
+      </c>
+      <c r="L15" s="3"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -918,46 +944,50 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E17" s="3">
         <v>0</v>
       </c>
       <c r="F17" s="3">
+        <v>0</v>
+      </c>
+      <c r="G17" s="3">
         <v>35800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>6500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>100</v>
       </c>
-      <c r="K17" s="3"/>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3"/>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" s="3">
         <v>200</v>
       </c>
-      <c r="E18" s="3">
-        <v>0</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>3</v>
+      <c r="F18" s="3">
+        <v>0</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>3</v>
@@ -971,9 +1001,12 @@
       <c r="J18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K18" s="3"/>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L18" s="3"/>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -985,19 +1018,20 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
-        <v>0</v>
+      <c r="D20" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
       </c>
-      <c r="F20" s="3" t="s">
-        <v>3</v>
+      <c r="F20" s="3">
+        <v>0</v>
       </c>
       <c r="G20" s="3" t="s">
         <v>3</v>
@@ -1011,9 +1045,12 @@
       <c r="J20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K20" s="3"/>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L20" s="3"/>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1038,9 +1075,12 @@
       <c r="J21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K21" s="3"/>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L21" s="3"/>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1065,41 +1105,47 @@
       <c r="J22" s="3">
         <v>0</v>
       </c>
-      <c r="K22" s="3"/>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K22" s="3">
+        <v>0</v>
+      </c>
+      <c r="L22" s="3"/>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E23" s="3">
         <v>200</v>
       </c>
-      <c r="E23" s="3">
-        <v>0</v>
-      </c>
       <c r="F23" s="3">
+        <v>0</v>
+      </c>
+      <c r="G23" s="3">
         <v>-35800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-6400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-2100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-100</v>
       </c>
-      <c r="K23" s="3"/>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3"/>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3">
-        <v>0</v>
+      <c r="D24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E24" s="3">
         <v>0</v>
@@ -1119,9 +1165,12 @@
       <c r="J24" s="3">
         <v>0</v>
       </c>
-      <c r="K24" s="3"/>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3"/>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1146,63 +1195,72 @@
       <c r="J25" s="3">
         <v>0</v>
       </c>
-      <c r="K25" s="3"/>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K25" s="3">
+        <v>0</v>
+      </c>
+      <c r="L25" s="3"/>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E26" s="3">
         <v>200</v>
       </c>
-      <c r="E26" s="3">
-        <v>0</v>
-      </c>
       <c r="F26" s="3">
+        <v>0</v>
+      </c>
+      <c r="G26" s="3">
         <v>-35800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-6400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-2100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-100</v>
       </c>
-      <c r="K26" s="3"/>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3"/>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E27" s="3">
         <v>200</v>
       </c>
-      <c r="E27" s="3">
-        <v>0</v>
-      </c>
       <c r="F27" s="3">
+        <v>0</v>
+      </c>
+      <c r="G27" s="3">
         <v>-35800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-6400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-2100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-100</v>
       </c>
-      <c r="K27" s="3"/>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3"/>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1227,9 +1285,12 @@
       <c r="J28" s="3">
         <v>0</v>
       </c>
-      <c r="K28" s="3"/>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K28" s="3">
+        <v>0</v>
+      </c>
+      <c r="L28" s="3"/>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1254,9 +1315,12 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3"/>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3"/>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1281,9 +1345,12 @@
       <c r="J30" s="3">
         <v>0</v>
       </c>
-      <c r="K30" s="3"/>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K30" s="3">
+        <v>0</v>
+      </c>
+      <c r="L30" s="3"/>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1308,20 +1375,23 @@
       <c r="J31" s="3">
         <v>0</v>
       </c>
-      <c r="K31" s="3"/>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K31" s="3">
+        <v>0</v>
+      </c>
+      <c r="L31" s="3"/>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
-        <v>0</v>
+      <c r="D32" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
       </c>
-      <c r="F32" s="3" t="s">
-        <v>3</v>
+      <c r="F32" s="3">
+        <v>0</v>
       </c>
       <c r="G32" s="3" t="s">
         <v>3</v>
@@ -1335,36 +1405,42 @@
       <c r="J32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K32" s="3"/>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L32" s="3"/>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E33" s="3">
         <v>200</v>
       </c>
-      <c r="E33" s="3">
-        <v>0</v>
-      </c>
       <c r="F33" s="3">
+        <v>0</v>
+      </c>
+      <c r="G33" s="3">
         <v>-35800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-6400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-2100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-100</v>
       </c>
-      <c r="K33" s="3"/>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3"/>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1389,68 +1465,77 @@
       <c r="J34" s="3">
         <v>0</v>
       </c>
-      <c r="K34" s="3"/>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K34" s="3">
+        <v>0</v>
+      </c>
+      <c r="L34" s="3"/>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E35" s="3">
         <v>200</v>
       </c>
-      <c r="E35" s="3">
-        <v>0</v>
-      </c>
       <c r="F35" s="3">
+        <v>0</v>
+      </c>
+      <c r="G35" s="3">
         <v>-35800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-6400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-2100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-100</v>
       </c>
-      <c r="K35" s="3"/>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3"/>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44408</v>
+      </c>
+      <c r="E38" s="2">
         <v>41455</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>41090</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>39263</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>38898</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>38533</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>38168</v>
       </c>
-      <c r="J38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="K38" s="2"/>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L38" s="2"/>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1462,8 +1547,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1475,35 +1561,39 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>0</v>
+        <v>1800</v>
       </c>
       <c r="E41" s="3">
         <v>0</v>
       </c>
       <c r="F41" s="3">
+        <v>0</v>
+      </c>
+      <c r="G41" s="3">
         <v>300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>100</v>
       </c>
-      <c r="J41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K41" s="3"/>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L41" s="3"/>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1516,8 +1606,8 @@
       <c r="F42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G42" s="3">
-        <v>0</v>
+      <c r="G42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H42" s="3">
         <v>0</v>
@@ -1525,12 +1615,15 @@
       <c r="I42" s="3">
         <v>0</v>
       </c>
-      <c r="J42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K42" s="3"/>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="J42" s="3">
+        <v>0</v>
+      </c>
+      <c r="K42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L42" s="3"/>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1540,24 +1633,27 @@
       <c r="E43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F43" s="3">
+      <c r="F43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G43" s="3">
         <v>2000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>100</v>
       </c>
-      <c r="H43" s="3">
-        <v>0</v>
-      </c>
-      <c r="I43" s="3" t="s">
-        <v>3</v>
+      <c r="I43" s="3">
+        <v>0</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K43" s="3"/>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L43" s="3"/>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1582,9 +1678,12 @@
       <c r="J44" s="3">
         <v>0</v>
       </c>
-      <c r="K44" s="3"/>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K44" s="3">
+        <v>0</v>
+      </c>
+      <c r="L44" s="3"/>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1594,51 +1693,57 @@
       <c r="E45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F45" s="3">
+      <c r="F45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G45" s="3">
         <v>1600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>2700</v>
       </c>
-      <c r="H45" s="3">
-        <v>0</v>
-      </c>
       <c r="I45" s="3">
         <v>0</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K45" s="3"/>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="J45" s="3">
+        <v>0</v>
+      </c>
+      <c r="K45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L45" s="3"/>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>0</v>
+        <v>1800</v>
       </c>
       <c r="E46" s="3">
         <v>0</v>
       </c>
       <c r="F46" s="3">
+        <v>0</v>
+      </c>
+      <c r="G46" s="3">
         <v>3900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>3400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>100</v>
       </c>
-      <c r="J46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K46" s="3"/>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L46" s="3"/>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1663,36 +1768,42 @@
       <c r="J47" s="3">
         <v>0</v>
       </c>
-      <c r="K47" s="3"/>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K47" s="3">
+        <v>0</v>
+      </c>
+      <c r="L47" s="3"/>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3">
-        <v>200</v>
+      <c r="D48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E48" s="3">
         <v>200</v>
       </c>
       <c r="F48" s="3">
+        <v>200</v>
+      </c>
+      <c r="G48" s="3">
         <v>1300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>200</v>
-      </c>
-      <c r="H48" s="3">
-        <v>100</v>
       </c>
       <c r="I48" s="3">
         <v>100</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K48" s="3"/>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="J48" s="3">
+        <v>100</v>
+      </c>
+      <c r="K48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L48" s="3"/>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1702,24 +1813,27 @@
       <c r="E49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F49" s="3">
+      <c r="F49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G49" s="3">
         <v>100</v>
-      </c>
-      <c r="G49" s="3">
-        <v>15200</v>
       </c>
       <c r="H49" s="3">
         <v>15200</v>
       </c>
       <c r="I49" s="3">
+        <v>15200</v>
+      </c>
+      <c r="J49" s="3">
         <v>14900</v>
       </c>
-      <c r="J49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K49" s="3"/>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L49" s="3"/>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1744,9 +1858,12 @@
       <c r="J50" s="3">
         <v>0</v>
       </c>
-      <c r="K50" s="3"/>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K50" s="3">
+        <v>0</v>
+      </c>
+      <c r="L50" s="3"/>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1771,9 +1888,12 @@
       <c r="J51" s="3">
         <v>0</v>
       </c>
-      <c r="K51" s="3"/>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K51" s="3">
+        <v>0</v>
+      </c>
+      <c r="L51" s="3"/>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -1798,9 +1918,12 @@
       <c r="J52" s="3">
         <v>0</v>
       </c>
-      <c r="K52" s="3"/>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K52" s="3">
+        <v>0</v>
+      </c>
+      <c r="L52" s="3"/>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1825,36 +1948,42 @@
       <c r="J53" s="3">
         <v>0</v>
       </c>
-      <c r="K53" s="3"/>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K53" s="3">
+        <v>0</v>
+      </c>
+      <c r="L53" s="3"/>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>200</v>
+        <v>1800</v>
       </c>
       <c r="E54" s="3">
         <v>200</v>
       </c>
       <c r="F54" s="3">
+        <v>200</v>
+      </c>
+      <c r="G54" s="3">
         <v>5200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>18800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>15500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>15100</v>
       </c>
-      <c r="J54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K54" s="3"/>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L54" s="3"/>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1866,8 +1995,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1879,19 +2009,20 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="3">
-        <v>0</v>
+      <c r="D57" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E57" s="3">
         <v>0</v>
       </c>
-      <c r="F57" s="3" t="s">
-        <v>3</v>
+      <c r="F57" s="3">
+        <v>0</v>
       </c>
       <c r="G57" s="3" t="s">
         <v>3</v>
@@ -1899,15 +2030,18 @@
       <c r="H57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I57" s="3">
-        <v>0</v>
-      </c>
-      <c r="J57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K57" s="3"/>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="I57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J57" s="3">
+        <v>0</v>
+      </c>
+      <c r="K57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L57" s="3"/>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -1932,9 +2066,12 @@
       <c r="J58" s="3">
         <v>0</v>
       </c>
-      <c r="K58" s="3"/>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K58" s="3">
+        <v>0</v>
+      </c>
+      <c r="L58" s="3"/>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -1942,26 +2079,29 @@
         <v>0</v>
       </c>
       <c r="E59" s="3">
+        <v>0</v>
+      </c>
+      <c r="F59" s="3">
         <v>500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>300</v>
-      </c>
-      <c r="H59" s="3">
-        <v>100</v>
       </c>
       <c r="I59" s="3">
         <v>100</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K59" s="3"/>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="J59" s="3">
+        <v>100</v>
+      </c>
+      <c r="K59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L59" s="3"/>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -1969,26 +2109,29 @@
         <v>0</v>
       </c>
       <c r="E60" s="3">
+        <v>0</v>
+      </c>
+      <c r="F60" s="3">
         <v>500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>300</v>
-      </c>
-      <c r="H60" s="3">
-        <v>100</v>
       </c>
       <c r="I60" s="3">
         <v>100</v>
       </c>
-      <c r="J60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K60" s="3"/>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="J60" s="3">
+        <v>100</v>
+      </c>
+      <c r="K60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L60" s="3"/>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -1999,11 +2142,11 @@
         <v>0</v>
       </c>
       <c r="F61" s="3">
+        <v>0</v>
+      </c>
+      <c r="G61" s="3">
         <v>2300</v>
       </c>
-      <c r="G61" s="3">
-        <v>0</v>
-      </c>
       <c r="H61" s="3">
         <v>0</v>
       </c>
@@ -2013,9 +2156,12 @@
       <c r="J61" s="3">
         <v>0</v>
       </c>
-      <c r="K61" s="3"/>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K61" s="3">
+        <v>0</v>
+      </c>
+      <c r="L61" s="3"/>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2040,9 +2186,12 @@
       <c r="J62" s="3">
         <v>0</v>
       </c>
-      <c r="K62" s="3"/>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K62" s="3">
+        <v>0</v>
+      </c>
+      <c r="L62" s="3"/>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2067,9 +2216,12 @@
       <c r="J63" s="3">
         <v>0</v>
       </c>
-      <c r="K63" s="3"/>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K63" s="3">
+        <v>0</v>
+      </c>
+      <c r="L63" s="3"/>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2094,9 +2246,12 @@
       <c r="J64" s="3">
         <v>0</v>
       </c>
-      <c r="K64" s="3"/>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K64" s="3">
+        <v>0</v>
+      </c>
+      <c r="L64" s="3"/>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2121,9 +2276,12 @@
       <c r="J65" s="3">
         <v>0</v>
       </c>
-      <c r="K65" s="3"/>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K65" s="3">
+        <v>0</v>
+      </c>
+      <c r="L65" s="3"/>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -2131,26 +2289,29 @@
         <v>0</v>
       </c>
       <c r="E66" s="3">
+        <v>0</v>
+      </c>
+      <c r="F66" s="3">
         <v>500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>3000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>300</v>
-      </c>
-      <c r="H66" s="3">
-        <v>100</v>
       </c>
       <c r="I66" s="3">
         <v>100</v>
       </c>
-      <c r="J66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K66" s="3"/>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="J66" s="3">
+        <v>100</v>
+      </c>
+      <c r="K66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L66" s="3"/>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2162,8 +2323,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2188,9 +2350,12 @@
       <c r="J68" s="3">
         <v>0</v>
       </c>
-      <c r="K68" s="3"/>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K68" s="3">
+        <v>0</v>
+      </c>
+      <c r="L68" s="3"/>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2215,9 +2380,12 @@
       <c r="J69" s="3">
         <v>0</v>
       </c>
-      <c r="K69" s="3"/>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K69" s="3">
+        <v>0</v>
+      </c>
+      <c r="L69" s="3"/>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2242,9 +2410,12 @@
       <c r="J70" s="3">
         <v>0</v>
       </c>
-      <c r="K70" s="3"/>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K70" s="3">
+        <v>0</v>
+      </c>
+      <c r="L70" s="3"/>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2269,36 +2440,42 @@
       <c r="J71" s="3">
         <v>0</v>
       </c>
-      <c r="K71" s="3"/>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K71" s="3">
+        <v>0</v>
+      </c>
+      <c r="L71" s="3"/>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E72" s="3">
+        <v>0</v>
+      </c>
+      <c r="F72" s="3">
         <v>-200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-60800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-9900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-3400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-1300</v>
       </c>
-      <c r="J72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K72" s="3"/>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L72" s="3"/>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2323,9 +2500,12 @@
       <c r="J73" s="3">
         <v>0</v>
       </c>
-      <c r="K73" s="3"/>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K73" s="3">
+        <v>0</v>
+      </c>
+      <c r="L73" s="3"/>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2350,9 +2530,12 @@
       <c r="J74" s="3">
         <v>0</v>
       </c>
-      <c r="K74" s="3"/>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K74" s="3">
+        <v>0</v>
+      </c>
+      <c r="L74" s="3"/>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2377,36 +2560,42 @@
       <c r="J75" s="3">
         <v>0</v>
       </c>
-      <c r="K75" s="3"/>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K75" s="3">
+        <v>0</v>
+      </c>
+      <c r="L75" s="3"/>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E76" s="3">
         <v>200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>2200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>18500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>15400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>15100</v>
       </c>
-      <c r="J76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K76" s="3"/>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L76" s="3"/>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2431,68 +2620,77 @@
       <c r="J77" s="3">
         <v>0</v>
       </c>
-      <c r="K77" s="3"/>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K77" s="3">
+        <v>0</v>
+      </c>
+      <c r="L77" s="3"/>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44408</v>
+      </c>
+      <c r="E80" s="2">
         <v>41455</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>41090</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>39263</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>38898</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>38533</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>38168</v>
       </c>
-      <c r="J80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="K80" s="2"/>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L80" s="2"/>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E81" s="3">
         <v>200</v>
       </c>
-      <c r="E81" s="3">
-        <v>0</v>
-      </c>
       <c r="F81" s="3">
+        <v>0</v>
+      </c>
+      <c r="G81" s="3">
         <v>-35800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-6400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-2100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-100</v>
       </c>
-      <c r="K81" s="3"/>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3"/>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2504,8 +2702,9 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2515,12 +2714,12 @@
       <c r="E83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F83" s="3">
+      <c r="F83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G83" s="3">
         <v>100</v>
       </c>
-      <c r="G83" s="3">
-        <v>0</v>
-      </c>
       <c r="H83" s="3">
         <v>0</v>
       </c>
@@ -2530,9 +2729,12 @@
       <c r="J83" s="3">
         <v>0</v>
       </c>
-      <c r="K83" s="3"/>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K83" s="3">
+        <v>0</v>
+      </c>
+      <c r="L83" s="3"/>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2557,9 +2759,12 @@
       <c r="J84" s="3">
         <v>0</v>
       </c>
-      <c r="K84" s="3"/>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K84" s="3">
+        <v>0</v>
+      </c>
+      <c r="L84" s="3"/>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2584,9 +2789,12 @@
       <c r="J85" s="3">
         <v>0</v>
       </c>
-      <c r="K85" s="3"/>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K85" s="3">
+        <v>0</v>
+      </c>
+      <c r="L85" s="3"/>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2611,9 +2819,12 @@
       <c r="J86" s="3">
         <v>0</v>
       </c>
-      <c r="K86" s="3"/>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K86" s="3">
+        <v>0</v>
+      </c>
+      <c r="L86" s="3"/>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2638,9 +2849,12 @@
       <c r="J87" s="3">
         <v>0</v>
       </c>
-      <c r="K87" s="3"/>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K87" s="3">
+        <v>0</v>
+      </c>
+      <c r="L87" s="3"/>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2665,9 +2879,12 @@
       <c r="J88" s="3">
         <v>0</v>
       </c>
-      <c r="K88" s="3"/>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K88" s="3">
+        <v>0</v>
+      </c>
+      <c r="L88" s="3"/>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -2678,23 +2895,26 @@
         <v>0</v>
       </c>
       <c r="F89" s="3">
+        <v>0</v>
+      </c>
+      <c r="G89" s="3">
         <v>-5100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-5600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-1500</v>
       </c>
-      <c r="I89" s="3">
-        <v>0</v>
-      </c>
       <c r="J89" s="3">
+        <v>0</v>
+      </c>
+      <c r="K89" s="3">
         <v>-100</v>
       </c>
-      <c r="K89" s="3"/>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3"/>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2706,8 +2926,9 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -2717,24 +2938,27 @@
       <c r="E91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F91" s="3">
+      <c r="F91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G91" s="3">
         <v>-1300</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-100</v>
       </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
       <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
         <v>-200</v>
       </c>
-      <c r="J91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K91" s="3"/>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L91" s="3"/>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2759,9 +2983,12 @@
       <c r="J92" s="3">
         <v>0</v>
       </c>
-      <c r="K92" s="3"/>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K92" s="3">
+        <v>0</v>
+      </c>
+      <c r="L92" s="3"/>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2786,9 +3013,12 @@
       <c r="J93" s="3">
         <v>0</v>
       </c>
-      <c r="K93" s="3"/>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K93" s="3">
+        <v>0</v>
+      </c>
+      <c r="L93" s="3"/>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -2798,24 +3028,27 @@
       <c r="E94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F94" s="3">
+      <c r="F94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G94" s="3">
         <v>-1300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-14900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-100</v>
       </c>
-      <c r="K94" s="3"/>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3"/>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2827,8 +3060,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -2853,9 +3087,12 @@
       <c r="J96" s="3">
         <v>0</v>
       </c>
-      <c r="K96" s="3"/>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3"/>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -2880,9 +3117,12 @@
       <c r="J97" s="3">
         <v>0</v>
       </c>
-      <c r="K97" s="3"/>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K97" s="3">
+        <v>0</v>
+      </c>
+      <c r="L97" s="3"/>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -2907,9 +3147,12 @@
       <c r="J98" s="3">
         <v>0</v>
       </c>
-      <c r="K98" s="3"/>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K98" s="3">
+        <v>0</v>
+      </c>
+      <c r="L98" s="3"/>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -2934,36 +3177,42 @@
       <c r="J99" s="3">
         <v>0</v>
       </c>
-      <c r="K99" s="3"/>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K99" s="3">
+        <v>0</v>
+      </c>
+      <c r="L99" s="3"/>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>1800</v>
       </c>
       <c r="E100" s="3">
         <v>0</v>
       </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>6000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>6200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>1900</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>14500</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
-      <c r="K100" s="3"/>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3"/>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -2973,14 +3222,14 @@
       <c r="E101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F101" s="3">
-        <v>0</v>
+      <c r="F101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G101" s="3">
         <v>0</v>
       </c>
-      <c r="H101" s="3" t="s">
-        <v>3</v>
+      <c r="H101" s="3">
+        <v>0</v>
       </c>
       <c r="I101" s="3" t="s">
         <v>3</v>
@@ -2988,34 +3237,40 @@
       <c r="J101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K101" s="3"/>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L101" s="3"/>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>1800</v>
       </c>
       <c r="E102" s="3">
         <v>0</v>
       </c>
       <c r="F102" s="3">
+        <v>0</v>
+      </c>
+      <c r="G102" s="3">
         <v>-400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-200</v>
       </c>
-      <c r="K102" s="3"/>
+      <c r="L102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/WBBA_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/WBBA_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="92">
   <si>
     <t>WBBA</t>
   </si>
@@ -1807,8 +1807,8 @@
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3" t="s">
-        <v>3</v>
+      <c r="D49" s="3">
+        <v>2700</v>
       </c>
       <c r="E49" s="3" t="s">
         <v>3</v>
@@ -1958,7 +1958,7 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1800</v>
+        <v>4500</v>
       </c>
       <c r="E54" s="3">
         <v>200</v>
@@ -2015,8 +2015,8 @@
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="3" t="s">
-        <v>3</v>
+      <c r="D57" s="3">
+        <v>0</v>
       </c>
       <c r="E57" s="3">
         <v>0</v>
@@ -2136,7 +2136,7 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>2700</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>0</v>
+        <v>2800</v>
       </c>
       <c r="E66" s="3">
         <v>0</v>
@@ -2450,7 +2450,7 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="E72" s="3">
         <v>0</v>

--- a/AAII_Financials/Yearly/WBBA_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/WBBA_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="92">
   <si>
     <t>WBBA</t>
   </si>
@@ -666,7 +666,8 @@
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
@@ -703,8 +704,8 @@
       <c r="I7" s="2">
         <v>38533</v>
       </c>
-      <c r="J7" s="2">
-        <v>38168</v>
+      <c r="J7" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>3</v>
@@ -897,8 +898,8 @@
       <c r="I14" s="3">
         <v>0</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
+      <c r="J14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -927,8 +928,8 @@
       <c r="I15" s="3">
         <v>0</v>
       </c>
-      <c r="J15" s="3">
-        <v>0</v>
+      <c r="J15" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K15" s="3">
         <v>0</v>
@@ -968,8 +969,8 @@
       <c r="I17" s="3">
         <v>2100</v>
       </c>
-      <c r="J17" s="3">
-        <v>200</v>
+      <c r="J17" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K17" s="3">
         <v>100</v>
@@ -1132,8 +1133,8 @@
       <c r="I23" s="3">
         <v>-2100</v>
       </c>
-      <c r="J23" s="3">
-        <v>-200</v>
+      <c r="J23" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K23" s="3">
         <v>-100</v>
@@ -1162,8 +1163,8 @@
       <c r="I24" s="3">
         <v>0</v>
       </c>
-      <c r="J24" s="3">
-        <v>0</v>
+      <c r="J24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K24" s="3">
         <v>0</v>
@@ -1222,8 +1223,8 @@
       <c r="I26" s="3">
         <v>-2100</v>
       </c>
-      <c r="J26" s="3">
-        <v>-200</v>
+      <c r="J26" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K26" s="3">
         <v>-100</v>
@@ -1252,8 +1253,8 @@
       <c r="I27" s="3">
         <v>-2100</v>
       </c>
-      <c r="J27" s="3">
-        <v>-200</v>
+      <c r="J27" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K27" s="3">
         <v>-100</v>
@@ -1432,8 +1433,8 @@
       <c r="I33" s="3">
         <v>-2100</v>
       </c>
-      <c r="J33" s="3">
-        <v>-200</v>
+      <c r="J33" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K33" s="3">
         <v>-100</v>
@@ -1492,8 +1493,8 @@
       <c r="I35" s="3">
         <v>-2100</v>
       </c>
-      <c r="J35" s="3">
-        <v>-200</v>
+      <c r="J35" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K35" s="3">
         <v>-100</v>
@@ -1527,8 +1528,8 @@
       <c r="I38" s="2">
         <v>38533</v>
       </c>
-      <c r="J38" s="2">
-        <v>38168</v>
+      <c r="J38" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="K38" s="2" t="s">
         <v>3</v>
@@ -1585,8 +1586,8 @@
       <c r="I41" s="3">
         <v>200</v>
       </c>
-      <c r="J41" s="3">
-        <v>100</v>
+      <c r="J41" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K41" s="3" t="s">
         <v>3</v>
@@ -1597,17 +1598,17 @@
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>3</v>
+      <c r="D42" s="3">
+        <v>0</v>
+      </c>
+      <c r="E42" s="3">
+        <v>0</v>
+      </c>
+      <c r="F42" s="3">
+        <v>0</v>
+      </c>
+      <c r="G42" s="3">
+        <v>0</v>
       </c>
       <c r="H42" s="3">
         <v>0</v>
@@ -1705,8 +1706,8 @@
       <c r="I45" s="3">
         <v>0</v>
       </c>
-      <c r="J45" s="3">
-        <v>0</v>
+      <c r="J45" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K45" s="3" t="s">
         <v>3</v>
@@ -1735,8 +1736,8 @@
       <c r="I46" s="3">
         <v>200</v>
       </c>
-      <c r="J46" s="3">
-        <v>100</v>
+      <c r="J46" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K46" s="3" t="s">
         <v>3</v>
@@ -1795,8 +1796,8 @@
       <c r="I48" s="3">
         <v>100</v>
       </c>
-      <c r="J48" s="3">
-        <v>100</v>
+      <c r="J48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K48" s="3" t="s">
         <v>3</v>
@@ -1825,8 +1826,8 @@
       <c r="I49" s="3">
         <v>15200</v>
       </c>
-      <c r="J49" s="3">
-        <v>14900</v>
+      <c r="J49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K49" s="3" t="s">
         <v>3</v>
@@ -1975,8 +1976,8 @@
       <c r="I54" s="3">
         <v>15500</v>
       </c>
-      <c r="J54" s="3">
-        <v>15100</v>
+      <c r="J54" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K54" s="3" t="s">
         <v>3</v>
@@ -2033,8 +2034,8 @@
       <c r="I57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J57" s="3">
-        <v>0</v>
+      <c r="J57" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K57" s="3" t="s">
         <v>3</v>
@@ -2093,8 +2094,8 @@
       <c r="I59" s="3">
         <v>100</v>
       </c>
-      <c r="J59" s="3">
-        <v>100</v>
+      <c r="J59" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K59" s="3" t="s">
         <v>3</v>
@@ -2123,8 +2124,8 @@
       <c r="I60" s="3">
         <v>100</v>
       </c>
-      <c r="J60" s="3">
-        <v>100</v>
+      <c r="J60" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K60" s="3" t="s">
         <v>3</v>
@@ -2303,8 +2304,8 @@
       <c r="I66" s="3">
         <v>100</v>
       </c>
-      <c r="J66" s="3">
-        <v>100</v>
+      <c r="J66" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K66" s="3" t="s">
         <v>3</v>
@@ -2467,8 +2468,8 @@
       <c r="I72" s="3">
         <v>-3400</v>
       </c>
-      <c r="J72" s="3">
-        <v>-1300</v>
+      <c r="J72" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K72" s="3" t="s">
         <v>3</v>
@@ -2587,8 +2588,8 @@
       <c r="I76" s="3">
         <v>15400</v>
       </c>
-      <c r="J76" s="3">
-        <v>15100</v>
+      <c r="J76" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K76" s="3" t="s">
         <v>3</v>
@@ -2652,8 +2653,8 @@
       <c r="I80" s="2">
         <v>38533</v>
       </c>
-      <c r="J80" s="2">
-        <v>38168</v>
+      <c r="J80" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="K80" s="2" t="s">
         <v>3</v>
@@ -2682,8 +2683,8 @@
       <c r="I81" s="3">
         <v>-2100</v>
       </c>
-      <c r="J81" s="3">
-        <v>-200</v>
+      <c r="J81" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K81" s="3">
         <v>-100</v>
@@ -2726,8 +2727,8 @@
       <c r="I83" s="3">
         <v>0</v>
       </c>
-      <c r="J83" s="3">
-        <v>0</v>
+      <c r="J83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K83" s="3">
         <v>0</v>
@@ -2906,8 +2907,8 @@
       <c r="I89" s="3">
         <v>-1500</v>
       </c>
-      <c r="J89" s="3">
-        <v>0</v>
+      <c r="J89" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K89" s="3">
         <v>-100</v>
@@ -2950,8 +2951,8 @@
       <c r="I91" s="3">
         <v>0</v>
       </c>
-      <c r="J91" s="3">
-        <v>-200</v>
+      <c r="J91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>3</v>
@@ -3040,8 +3041,8 @@
       <c r="I94" s="3">
         <v>-300</v>
       </c>
-      <c r="J94" s="3">
-        <v>-14900</v>
+      <c r="J94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K94" s="3">
         <v>-100</v>
@@ -3204,8 +3205,8 @@
       <c r="I100" s="3">
         <v>1900</v>
       </c>
-      <c r="J100" s="3">
-        <v>14500</v>
+      <c r="J100" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K100" s="3">
         <v>0</v>
@@ -3264,8 +3265,8 @@
       <c r="I102" s="3">
         <v>100</v>
       </c>
-      <c r="J102" s="3">
-        <v>-500</v>
+      <c r="J102" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K102" s="3">
         <v>-200</v>

--- a/AAII_Financials/Yearly/WBBA_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/WBBA_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="92">
   <si>
     <t>WBBA</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,68 +665,71 @@
     <col min="1" max="1" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44773</v>
+      </c>
+      <c r="E7" s="2">
         <v>44408</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>41455</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>41090</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>39263</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>38898</v>
       </c>
-      <c r="I7" s="2">
-        <v>38533</v>
-      </c>
       <c r="J7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>3</v>
+      <c r="D8" s="3">
+        <v>200</v>
       </c>
       <c r="E8" s="3">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3">
         <v>200</v>
       </c>
-      <c r="F8" s="3">
-        <v>0</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>3</v>
+      <c r="G8" s="3">
+        <v>0</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>3</v>
@@ -740,18 +743,21 @@
       <c r="K8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>700</v>
+      </c>
+      <c r="E9" s="3">
         <v>100</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F9" s="3" t="s">
         <v>3</v>
       </c>
@@ -770,17 +776,20 @@
       <c r="K9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>3</v>
+      <c r="D10" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E10" s="3">
+        <v>-100</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>3</v>
@@ -800,9 +809,12 @@
       <c r="K10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -815,8 +827,9 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -829,24 +842,27 @@
       <c r="F12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G12" s="3">
+      <c r="G12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H12" s="3">
         <v>12100</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>500</v>
       </c>
-      <c r="I12" s="3">
-        <v>1000</v>
-      </c>
       <c r="J12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K12" s="3">
-        <v>0</v>
-      </c>
-      <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L12" s="3">
+        <v>0</v>
+      </c>
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -874,9 +890,12 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-      <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -889,29 +908,32 @@
       <c r="F14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H14" s="3">
         <v>400</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
       <c r="I14" s="3">
         <v>0</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>3</v>
+      <c r="D15" s="3">
+        <v>100</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>3</v>
@@ -919,24 +941,27 @@
       <c r="F15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G15" s="3">
+      <c r="G15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H15" s="3">
         <v>100</v>
       </c>
-      <c r="H15" s="3">
-        <v>0</v>
-      </c>
       <c r="I15" s="3">
         <v>0</v>
       </c>
       <c r="J15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K15" s="3">
-        <v>0</v>
-      </c>
-      <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -946,52 +971,56 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E17" s="3">
         <v>100</v>
       </c>
-      <c r="E17" s="3">
-        <v>0</v>
-      </c>
       <c r="F17" s="3">
         <v>0</v>
       </c>
       <c r="G17" s="3">
+        <v>0</v>
+      </c>
+      <c r="H17" s="3">
         <v>35800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>6500</v>
       </c>
-      <c r="I17" s="3">
-        <v>2100</v>
-      </c>
       <c r="J17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K17" s="3">
+      <c r="K17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L17" s="3">
         <v>100</v>
       </c>
-      <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>3</v>
+      <c r="D18" s="3">
+        <v>-1300</v>
       </c>
       <c r="E18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F18" s="3">
         <v>200</v>
       </c>
-      <c r="F18" s="3">
-        <v>0</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>3</v>
+      <c r="G18" s="3">
+        <v>0</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>3</v>
@@ -1005,9 +1034,12 @@
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1020,22 +1052,23 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>3</v>
+      <c r="D20" s="3">
+        <v>-300</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F20" s="3">
         <v>0</v>
       </c>
-      <c r="G20" s="3" t="s">
-        <v>3</v>
+      <c r="G20" s="3">
+        <v>0</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>3</v>
@@ -1049,17 +1082,20 @@
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>3</v>
+      <c r="D21" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-100</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>3</v>
@@ -1079,9 +1115,12 @@
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L21" s="3"/>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1091,62 +1130,68 @@
       <c r="E22" s="3">
         <v>0</v>
       </c>
-      <c r="F22" s="3">
-        <v>0</v>
-      </c>
-      <c r="G22" s="3">
-        <v>0</v>
-      </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
-      <c r="J22" s="3">
-        <v>0</v>
+      <c r="F22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K22" s="3">
         <v>0</v>
       </c>
-      <c r="L22" s="3"/>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F23" s="3">
+        <v>200</v>
+      </c>
+      <c r="G23" s="3">
+        <v>0</v>
+      </c>
+      <c r="H23" s="3">
+        <v>-35800</v>
+      </c>
+      <c r="I23" s="3">
+        <v>-6400</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L23" s="3">
         <v>-100</v>
       </c>
-      <c r="E23" s="3">
-        <v>200</v>
-      </c>
-      <c r="F23" s="3">
-        <v>0</v>
-      </c>
-      <c r="G23" s="3">
-        <v>-35800</v>
-      </c>
-      <c r="H23" s="3">
-        <v>-6400</v>
-      </c>
-      <c r="I23" s="3">
-        <v>-2100</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K23" s="3">
-        <v>-100</v>
-      </c>
-      <c r="L23" s="3"/>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>3</v>
+      <c r="D24" s="3">
+        <v>0</v>
       </c>
       <c r="E24" s="3">
         <v>0</v>
@@ -1166,12 +1211,15 @@
       <c r="J24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
-      <c r="L24" s="3"/>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="K24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1199,69 +1247,78 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-      <c r="L25" s="3"/>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F26" s="3">
+        <v>200</v>
+      </c>
+      <c r="G26" s="3">
+        <v>0</v>
+      </c>
+      <c r="H26" s="3">
+        <v>-35800</v>
+      </c>
+      <c r="I26" s="3">
+        <v>-6400</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L26" s="3">
         <v>-100</v>
       </c>
-      <c r="E26" s="3">
-        <v>200</v>
-      </c>
-      <c r="F26" s="3">
-        <v>0</v>
-      </c>
-      <c r="G26" s="3">
-        <v>-35800</v>
-      </c>
-      <c r="H26" s="3">
-        <v>-6400</v>
-      </c>
-      <c r="I26" s="3">
-        <v>-2100</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K26" s="3">
-        <v>-100</v>
-      </c>
-      <c r="L26" s="3"/>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3"/>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F27" s="3">
+        <v>200</v>
+      </c>
+      <c r="G27" s="3">
+        <v>0</v>
+      </c>
+      <c r="H27" s="3">
+        <v>-35800</v>
+      </c>
+      <c r="I27" s="3">
+        <v>-6400</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L27" s="3">
         <v>-100</v>
       </c>
-      <c r="E27" s="3">
-        <v>200</v>
-      </c>
-      <c r="F27" s="3">
-        <v>0</v>
-      </c>
-      <c r="G27" s="3">
-        <v>-35800</v>
-      </c>
-      <c r="H27" s="3">
-        <v>-6400</v>
-      </c>
-      <c r="I27" s="3">
-        <v>-2100</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K27" s="3">
-        <v>-100</v>
-      </c>
-      <c r="L27" s="3"/>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3"/>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1289,9 +1346,12 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-      <c r="L28" s="3"/>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3"/>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1319,9 +1379,12 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3"/>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3"/>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1349,9 +1412,12 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-      <c r="L30" s="3"/>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3"/>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1379,23 +1445,26 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-      <c r="L31" s="3"/>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3"/>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>3</v>
+      <c r="D32" s="3">
+        <v>300</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F32" s="3">
         <v>0</v>
       </c>
-      <c r="G32" s="3" t="s">
-        <v>3</v>
+      <c r="G32" s="3">
+        <v>0</v>
       </c>
       <c r="H32" s="3" t="s">
         <v>3</v>
@@ -1409,39 +1478,45 @@
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L32" s="3"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M32" s="3"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F33" s="3">
+        <v>200</v>
+      </c>
+      <c r="G33" s="3">
+        <v>0</v>
+      </c>
+      <c r="H33" s="3">
+        <v>-35800</v>
+      </c>
+      <c r="I33" s="3">
+        <v>-6400</v>
+      </c>
+      <c r="J33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L33" s="3">
         <v>-100</v>
       </c>
-      <c r="E33" s="3">
-        <v>200</v>
-      </c>
-      <c r="F33" s="3">
-        <v>0</v>
-      </c>
-      <c r="G33" s="3">
-        <v>-35800</v>
-      </c>
-      <c r="H33" s="3">
-        <v>-6400</v>
-      </c>
-      <c r="I33" s="3">
-        <v>-2100</v>
-      </c>
-      <c r="J33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K33" s="3">
-        <v>-100</v>
-      </c>
-      <c r="L33" s="3"/>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1469,74 +1544,83 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-      <c r="L34" s="3"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F35" s="3">
+        <v>200</v>
+      </c>
+      <c r="G35" s="3">
+        <v>0</v>
+      </c>
+      <c r="H35" s="3">
+        <v>-35800</v>
+      </c>
+      <c r="I35" s="3">
+        <v>-6400</v>
+      </c>
+      <c r="J35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L35" s="3">
         <v>-100</v>
       </c>
-      <c r="E35" s="3">
-        <v>200</v>
-      </c>
-      <c r="F35" s="3">
-        <v>0</v>
-      </c>
-      <c r="G35" s="3">
-        <v>-35800</v>
-      </c>
-      <c r="H35" s="3">
-        <v>-6400</v>
-      </c>
-      <c r="I35" s="3">
-        <v>-2100</v>
-      </c>
-      <c r="J35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K35" s="3">
-        <v>-100</v>
-      </c>
-      <c r="L35" s="3"/>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44773</v>
+      </c>
+      <c r="E38" s="2">
         <v>44408</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>41455</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>41090</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>39263</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>38898</v>
       </c>
-      <c r="I38" s="2">
-        <v>38533</v>
-      </c>
       <c r="J38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L38" s="2"/>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M38" s="2"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1549,8 +1633,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1563,13 +1648,14 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1800</v>
+        <v>100</v>
       </c>
       <c r="E41" s="3">
         <v>0</v>
@@ -1578,23 +1664,26 @@
         <v>0</v>
       </c>
       <c r="G41" s="3">
+        <v>0</v>
+      </c>
+      <c r="H41" s="3">
         <v>300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>700</v>
       </c>
-      <c r="I41" s="3">
-        <v>200</v>
-      </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L41" s="3"/>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M41" s="3"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1619,42 +1708,48 @@
       <c r="J42" s="3">
         <v>0</v>
       </c>
-      <c r="K42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L42" s="3"/>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="K42" s="3">
+        <v>0</v>
+      </c>
+      <c r="L42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M42" s="3"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>3</v>
+      <c r="D43" s="3">
+        <v>0</v>
+      </c>
+      <c r="E43" s="3">
+        <v>0</v>
       </c>
       <c r="F43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G43" s="3">
+      <c r="G43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H43" s="3">
         <v>2000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>100</v>
       </c>
-      <c r="I43" s="3">
-        <v>0</v>
-      </c>
       <c r="J43" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L43" s="3"/>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M43" s="3"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1664,62 +1759,68 @@
       <c r="E44" s="3">
         <v>0</v>
       </c>
-      <c r="F44" s="3">
-        <v>0</v>
-      </c>
-      <c r="G44" s="3">
-        <v>0</v>
-      </c>
-      <c r="H44" s="3">
-        <v>0</v>
-      </c>
-      <c r="I44" s="3">
-        <v>0</v>
-      </c>
-      <c r="J44" s="3">
-        <v>0</v>
+      <c r="F44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K44" s="3">
         <v>0</v>
       </c>
-      <c r="L44" s="3"/>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+      <c r="M44" s="3"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>3</v>
+      <c r="D45" s="3">
+        <v>100</v>
+      </c>
+      <c r="E45" s="3">
+        <v>0</v>
       </c>
       <c r="F45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G45" s="3">
+      <c r="G45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H45" s="3">
         <v>1600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>2700</v>
       </c>
-      <c r="I45" s="3">
-        <v>0</v>
-      </c>
       <c r="J45" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L45" s="3"/>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M45" s="3"/>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1800</v>
+        <v>200</v>
       </c>
       <c r="E46" s="3">
         <v>0</v>
@@ -1728,23 +1829,26 @@
         <v>0</v>
       </c>
       <c r="G46" s="3">
+        <v>0</v>
+      </c>
+      <c r="H46" s="3">
         <v>3900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>3400</v>
       </c>
-      <c r="I46" s="3">
-        <v>200</v>
-      </c>
       <c r="J46" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L46" s="3"/>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M46" s="3"/>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1772,56 +1876,62 @@
       <c r="K47" s="3">
         <v>0</v>
       </c>
-      <c r="L47" s="3"/>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+      <c r="M47" s="3"/>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3" t="s">
-        <v>3</v>
+      <c r="D48" s="3">
+        <v>1200</v>
       </c>
       <c r="E48" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="F48" s="3">
         <v>200</v>
       </c>
       <c r="G48" s="3">
+        <v>200</v>
+      </c>
+      <c r="H48" s="3">
         <v>1300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>200</v>
       </c>
-      <c r="I48" s="3">
-        <v>100</v>
-      </c>
       <c r="J48" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L48" s="3"/>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M48" s="3"/>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E49" s="3">
         <v>2700</v>
       </c>
-      <c r="E49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G49" s="3">
+      <c r="G49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H49" s="3">
         <v>100</v>
-      </c>
-      <c r="H49" s="3">
-        <v>15200</v>
       </c>
       <c r="I49" s="3">
         <v>15200</v>
@@ -1832,9 +1942,12 @@
       <c r="K49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L49" s="3"/>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M49" s="3"/>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1862,9 +1975,12 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-      <c r="L50" s="3"/>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3"/>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1892,39 +2008,45 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-      <c r="L51" s="3"/>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3"/>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E52" s="3">
         <v>0</v>
       </c>
-      <c r="F52" s="3">
-        <v>0</v>
-      </c>
-      <c r="G52" s="3">
-        <v>0</v>
-      </c>
-      <c r="H52" s="3">
-        <v>0</v>
-      </c>
-      <c r="I52" s="3">
-        <v>0</v>
-      </c>
-      <c r="J52" s="3">
-        <v>0</v>
+      <c r="F52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K52" s="3">
         <v>0</v>
       </c>
-      <c r="L52" s="3"/>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L52" s="3">
+        <v>0</v>
+      </c>
+      <c r="M52" s="3"/>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1952,39 +2074,45 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-      <c r="L53" s="3"/>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3"/>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>4500</v>
+        <v>3800</v>
       </c>
       <c r="E54" s="3">
-        <v>200</v>
+        <v>2700</v>
       </c>
       <c r="F54" s="3">
         <v>200</v>
       </c>
       <c r="G54" s="3">
+        <v>200</v>
+      </c>
+      <c r="H54" s="3">
         <v>5200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>18800</v>
       </c>
-      <c r="I54" s="3">
-        <v>15500</v>
-      </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L54" s="3"/>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M54" s="3"/>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1997,8 +2125,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2011,8 +2140,9 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2025,8 +2155,8 @@
       <c r="F57" s="3">
         <v>0</v>
       </c>
-      <c r="G57" s="3" t="s">
-        <v>3</v>
+      <c r="G57" s="3">
+        <v>0</v>
       </c>
       <c r="H57" s="3" t="s">
         <v>3</v>
@@ -2040,9 +2170,12 @@
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L57" s="3"/>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M57" s="3"/>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2070,87 +2203,96 @@
       <c r="K58" s="3">
         <v>0</v>
       </c>
-      <c r="L58" s="3"/>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3"/>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E59" s="3">
         <v>0</v>
       </c>
       <c r="F59" s="3">
+        <v>0</v>
+      </c>
+      <c r="G59" s="3">
         <v>500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>300</v>
       </c>
-      <c r="I59" s="3">
-        <v>100</v>
-      </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L59" s="3"/>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M59" s="3"/>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E60" s="3">
         <v>0</v>
       </c>
       <c r="F60" s="3">
+        <v>0</v>
+      </c>
+      <c r="G60" s="3">
         <v>500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>300</v>
       </c>
-      <c r="I60" s="3">
-        <v>100</v>
-      </c>
       <c r="J60" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L60" s="3"/>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M60" s="3"/>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>0</v>
+      </c>
+      <c r="E61" s="3">
         <v>2700</v>
       </c>
-      <c r="E61" s="3">
-        <v>0</v>
-      </c>
       <c r="F61" s="3">
         <v>0</v>
       </c>
       <c r="G61" s="3">
+        <v>0</v>
+      </c>
+      <c r="H61" s="3">
         <v>2300</v>
       </c>
-      <c r="H61" s="3">
-        <v>0</v>
-      </c>
       <c r="I61" s="3">
         <v>0</v>
       </c>
@@ -2160,39 +2302,45 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-      <c r="L61" s="3"/>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3"/>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E62" s="3">
         <v>0</v>
       </c>
-      <c r="F62" s="3">
-        <v>0</v>
-      </c>
-      <c r="G62" s="3">
-        <v>0</v>
-      </c>
-      <c r="H62" s="3">
-        <v>0</v>
-      </c>
-      <c r="I62" s="3">
-        <v>0</v>
-      </c>
-      <c r="J62" s="3">
-        <v>0</v>
+      <c r="F62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K62" s="3">
         <v>0</v>
       </c>
-      <c r="L62" s="3"/>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L62" s="3">
+        <v>0</v>
+      </c>
+      <c r="M62" s="3"/>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2220,9 +2368,12 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-      <c r="L63" s="3"/>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3"/>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2250,9 +2401,12 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-      <c r="L64" s="3"/>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3"/>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2280,39 +2434,45 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-      <c r="L65" s="3"/>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3"/>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>2800</v>
+        <v>500</v>
       </c>
       <c r="E66" s="3">
-        <v>0</v>
+        <v>2700</v>
       </c>
       <c r="F66" s="3">
+        <v>0</v>
+      </c>
+      <c r="G66" s="3">
         <v>500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>3000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>300</v>
       </c>
-      <c r="I66" s="3">
-        <v>100</v>
-      </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L66" s="3"/>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M66" s="3"/>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2325,8 +2485,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2354,9 +2515,12 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-      <c r="L68" s="3"/>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3"/>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2384,9 +2548,12 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-      <c r="L69" s="3"/>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3"/>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2414,9 +2581,12 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-      <c r="L70" s="3"/>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3"/>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2444,39 +2614,45 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-      <c r="L71" s="3"/>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3"/>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E72" s="3">
         <v>-200</v>
       </c>
-      <c r="E72" s="3">
-        <v>0</v>
-      </c>
       <c r="F72" s="3">
+        <v>0</v>
+      </c>
+      <c r="G72" s="3">
         <v>-200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-60800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-9900</v>
       </c>
-      <c r="I72" s="3">
-        <v>-3400</v>
-      </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L72" s="3"/>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M72" s="3"/>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2504,9 +2680,12 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-      <c r="L73" s="3"/>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3"/>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2534,9 +2713,12 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-      <c r="L74" s="3"/>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3"/>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2564,39 +2746,45 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-      <c r="L75" s="3"/>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3"/>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1800</v>
+        <v>3300</v>
       </c>
       <c r="E76" s="3">
+        <v>0</v>
+      </c>
+      <c r="F76" s="3">
         <v>200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>2200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>18500</v>
       </c>
-      <c r="I76" s="3">
-        <v>15400</v>
-      </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L76" s="3"/>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M76" s="3"/>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2624,74 +2812,83 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-      <c r="L77" s="3"/>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3"/>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44773</v>
+      </c>
+      <c r="E80" s="2">
         <v>44408</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>41455</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>41090</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>39263</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>38898</v>
       </c>
-      <c r="I80" s="2">
-        <v>38533</v>
-      </c>
       <c r="J80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L80" s="2"/>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M80" s="2"/>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F81" s="3">
+        <v>200</v>
+      </c>
+      <c r="G81" s="3">
+        <v>0</v>
+      </c>
+      <c r="H81" s="3">
+        <v>-35800</v>
+      </c>
+      <c r="I81" s="3">
+        <v>-6400</v>
+      </c>
+      <c r="J81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L81" s="3">
         <v>-100</v>
       </c>
-      <c r="E81" s="3">
-        <v>200</v>
-      </c>
-      <c r="F81" s="3">
-        <v>0</v>
-      </c>
-      <c r="G81" s="3">
-        <v>-35800</v>
-      </c>
-      <c r="H81" s="3">
-        <v>-6400</v>
-      </c>
-      <c r="I81" s="3">
-        <v>-2100</v>
-      </c>
-      <c r="J81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K81" s="3">
-        <v>-100</v>
-      </c>
-      <c r="L81" s="3"/>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3"/>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2704,38 +2901,42 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E83" s="3" t="s">
-        <v>3</v>
+      <c r="D83" s="3">
+        <v>200</v>
+      </c>
+      <c r="E83" s="3">
+        <v>0</v>
       </c>
       <c r="F83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G83" s="3">
+      <c r="G83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H83" s="3">
         <v>100</v>
       </c>
-      <c r="H83" s="3">
-        <v>0</v>
-      </c>
       <c r="I83" s="3">
         <v>0</v>
       </c>
       <c r="J83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K83" s="3">
-        <v>0</v>
-      </c>
-      <c r="L83" s="3"/>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="K83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L83" s="3">
+        <v>0</v>
+      </c>
+      <c r="M83" s="3"/>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2763,9 +2964,12 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-      <c r="L84" s="3"/>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3"/>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2793,9 +2997,12 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-      <c r="L85" s="3"/>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3"/>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2823,9 +3030,12 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-      <c r="L86" s="3"/>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3"/>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2853,9 +3063,12 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-      <c r="L87" s="3"/>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3"/>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2883,14 +3096,17 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-      <c r="L88" s="3"/>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3"/>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>0</v>
+        <v>-1600</v>
       </c>
       <c r="E89" s="3">
         <v>0</v>
@@ -2899,23 +3115,26 @@
         <v>0</v>
       </c>
       <c r="G89" s="3">
+        <v>0</v>
+      </c>
+      <c r="H89" s="3">
         <v>-5100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-5600</v>
       </c>
-      <c r="I89" s="3">
-        <v>-1500</v>
-      </c>
       <c r="J89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K89" s="3">
+      <c r="K89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L89" s="3">
         <v>-100</v>
       </c>
-      <c r="L89" s="3"/>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3"/>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2928,38 +3147,42 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>3</v>
+      <c r="D91" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E91" s="3">
+        <v>0</v>
       </c>
       <c r="F91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G91" s="3">
+      <c r="G91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H91" s="3">
         <v>-1300</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-100</v>
       </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
       <c r="J91" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L91" s="3"/>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M91" s="3"/>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2987,9 +3210,12 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-      <c r="L92" s="3"/>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3"/>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3017,39 +3243,45 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-      <c r="L93" s="3"/>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3"/>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E94" s="3" t="s">
-        <v>3</v>
+      <c r="D94" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-2300</v>
       </c>
       <c r="F94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G94" s="3">
+      <c r="G94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H94" s="3">
         <v>-1300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-100</v>
       </c>
-      <c r="I94" s="3">
-        <v>-300</v>
-      </c>
       <c r="J94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K94" s="3">
+      <c r="K94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L94" s="3">
         <v>-100</v>
       </c>
-      <c r="L94" s="3"/>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3"/>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3062,8 +3294,9 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3091,9 +3324,12 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-      <c r="L96" s="3"/>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3"/>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3121,9 +3357,12 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-      <c r="L97" s="3"/>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3"/>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3151,9 +3390,12 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-      <c r="L98" s="3"/>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3"/>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3181,59 +3423,65 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-      <c r="L99" s="3"/>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3"/>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>1800</v>
+        <v>2700</v>
       </c>
       <c r="E100" s="3">
-        <v>0</v>
+        <v>2300</v>
       </c>
       <c r="F100" s="3">
         <v>0</v>
       </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>6000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>6200</v>
       </c>
-      <c r="I100" s="3">
-        <v>1900</v>
-      </c>
       <c r="J100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
-      <c r="L100" s="3"/>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="K100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3"/>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E101" s="3" t="s">
-        <v>3</v>
+      <c r="D101" s="3">
+        <v>0</v>
+      </c>
+      <c r="E101" s="3">
+        <v>0</v>
       </c>
       <c r="F101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G101" s="3">
-        <v>0</v>
+      <c r="G101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H101" s="3">
         <v>0</v>
       </c>
-      <c r="I101" s="3" t="s">
-        <v>3</v>
+      <c r="I101" s="3">
+        <v>0</v>
       </c>
       <c r="J101" s="3" t="s">
         <v>3</v>
@@ -3241,14 +3489,17 @@
       <c r="K101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L101" s="3"/>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M101" s="3"/>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>1800</v>
+        <v>100</v>
       </c>
       <c r="E102" s="3">
         <v>0</v>
@@ -3257,21 +3508,24 @@
         <v>0</v>
       </c>
       <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
         <v>-400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>500</v>
       </c>
-      <c r="I102" s="3">
-        <v>100</v>
-      </c>
       <c r="J102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K102" s="3">
+      <c r="K102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L102" s="3">
         <v>-200</v>
       </c>
-      <c r="L102" s="3"/>
+      <c r="M102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
